--- a/ultimate BOOKMARKSv1.1.xlsx
+++ b/ultimate BOOKMARKSv1.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="359">
   <si>
     <t>http://tunein.com/radio/Deep-Mix-Moscow-Radio-s48720/</t>
   </si>
@@ -1096,6 +1096,9 @@
   </si>
   <si>
     <t>bitbucket</t>
+  </si>
+  <si>
+    <t>bla</t>
   </si>
 </sst>
 </file>
@@ -2358,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2544,6 +2547,11 @@
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/ultimate BOOKMARKSv1.1.xlsx
+++ b/ultimate BOOKMARKSv1.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="360">
   <si>
     <t>http://tunein.com/radio/Deep-Mix-Moscow-Radio-s48720/</t>
   </si>
@@ -1099,6 +1099,9 @@
   </si>
   <si>
     <t>bla</t>
+  </si>
+  <si>
+    <t>ba</t>
   </si>
 </sst>
 </file>
@@ -2361,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2552,6 +2555,11 @@
     <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/ultimate BOOKMARKSv1.1.xlsx
+++ b/ultimate BOOKMARKSv1.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="364">
   <si>
     <t>http://tunein.com/radio/Deep-Mix-Moscow-Radio-s48720/</t>
   </si>
@@ -1102,6 +1102,18 @@
   </si>
   <si>
     <t>ba</t>
+  </si>
+  <si>
+    <t>fsdf</t>
+  </si>
+  <si>
+    <t>sdfsdaf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -2364,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2560,6 +2572,26 @@
     <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
